--- a/takashoIEEE結果CSV/結果.xlsx
+++ b/takashoIEEE結果CSV/結果.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aharaLab\Documents\fireplaceAharaLab\takashoIEEE結果CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\Programs\Python\Python38\Lib\site-packages\fireplaceAharaLab\takashoIEEE結果CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A10FBC5D-F04C-46DD-B58C-EC94D98FE2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39440EDF-4C5B-4423-A597-2774C5674DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9EE5AC19-459F-4FD4-B633-AB8EA678AFE7}"/>
+    <workbookView xWindow="2100" yWindow="2205" windowWidth="25710" windowHeight="10290" xr2:uid="{9EE5AC19-459F-4FD4-B633-AB8EA678AFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$20:$E$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>先マナ</t>
     <rPh sb="0" eb="1">
@@ -119,6 +122,110 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝率</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3-1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3-1-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3-2-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3-2-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-4-1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-4-2-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-4-2-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3-1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3-1-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3-2-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3-2-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-4-1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-4-1-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-4-2-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-4-2-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-4-1-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均先行リーサルターン数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均後行リーサルターン数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -182,6 +289,1311 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推定下限</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2-4-1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-4-1-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2-3-1-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2-3-1-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2-4-2-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2-4-2-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1-4-1-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2-3-2-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1-4-1-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1-3-1-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2-3-2-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-3-1-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1-4-2-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1-3-2-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1-4-2-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1-3-2-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.79033327026870337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78353737475576812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76934745896100243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76934745896100243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60335262054908056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58377201854005223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58226647442812884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57754970354612023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55939355211710018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55488165222464492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5528766248884065</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54776453139623504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35984026748287623</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33657658227460507</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33508615875665304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31671282199724177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C051-45D1-BAE7-AD68827CCFD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推定上限</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2-4-1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-4-1-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2-3-1-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2-3-1-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2-4-2-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2-4-2-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1-4-1-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2-3-2-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1-4-1-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1-3-1-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2-3-2-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-3-1-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1-4-2-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1-3-2-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1-4-2-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1-3-2-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.80606672973129667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79946262524423184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78565254103899751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78565254103899751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62244737945091944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60302798145994785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60153352557187112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59685029645387988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57880644788289992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57431834777535506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57232337511159348</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56723546860376495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3787597325171238</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3552234177253949</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35371384124334693</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33508717800275828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C051-45D1-BAE7-AD68827CCFD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>勝率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2-4-1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-4-1-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2-3-1-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2-3-1-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2-4-2-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2-4-2-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1-4-1-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2-3-2-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1-4-1-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1-3-1-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2-3-2-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-3-1-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1-4-2-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1-3-2-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1-4-2-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1-3-2-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$21:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.79820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79149999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58720000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5575</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32590000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C051-45D1-BAE7-AD68827CCFD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="1106664960"/>
+        <c:axId val="1106684096"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="1106664960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1106684096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1106684096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1106664960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>157161</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>221933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0527F7A-C739-457E-8384-85F306F483DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,18 +1893,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04983BC-3F20-41EC-8F96-A1E0479E65FD}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +1934,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -553,8 +1973,14 @@
         <f>E2+1.96*G2</f>
         <v>0.57431834777535506</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J2">
+        <v>13.04321644</v>
+      </c>
+      <c r="K2">
+        <v>13.10932476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -586,8 +2012,14 @@
         <f t="shared" ref="I3:I17" si="3">E3+1.96*G3</f>
         <v>0.56723546860376495</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J3">
+        <v>13.035810205908684</v>
+      </c>
+      <c r="K3">
+        <v>13.063222297756628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -619,8 +2051,14 @@
         <f t="shared" si="3"/>
         <v>0.3552234177253949</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J4">
+        <v>12.633136090000001</v>
+      </c>
+      <c r="K4">
+        <v>12.19873671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -652,8 +2090,14 @@
         <f t="shared" si="3"/>
         <v>0.33508717800275828</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J5">
+        <v>12.616564417177914</v>
+      </c>
+      <c r="K5">
+        <v>12.129765286290926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -685,8 +2129,14 @@
         <f t="shared" si="3"/>
         <v>0.60153352557187112</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J6">
+        <v>12.966711726934776</v>
+      </c>
+      <c r="K6">
+        <v>13.157170923379175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -718,8 +2168,14 @@
         <f t="shared" si="3"/>
         <v>0.57880644788289992</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J7">
+        <v>13.000707463742483</v>
+      </c>
+      <c r="K7">
+        <v>13.06789413118527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -732,24 +2188,33 @@
       <c r="D8">
         <v>3</v>
       </c>
+      <c r="E8">
+        <v>0.36930000000000002</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3294080408040805E-5</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8263941413896989E-3</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.35984026748287623</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.3787597325171238</v>
+      </c>
+      <c r="J8">
+        <v>12.552447552447552</v>
+      </c>
+      <c r="K8">
+        <v>12.176723451679669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -762,24 +2227,33 @@
       <c r="D9">
         <v>4</v>
       </c>
+      <c r="E9">
+        <v>0.34439999999999998</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2581122112211218E-5</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.751959818034157E-3</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33508615875665304</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.35371384124334693</v>
+      </c>
+      <c r="J9">
+        <v>12.533681765389083</v>
+      </c>
+      <c r="K9">
+        <v>12.174065598779558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
@@ -792,24 +2266,33 @@
       <c r="D10">
         <v>3</v>
       </c>
+      <c r="E10">
+        <v>0.76249999999999996</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.8111186118611865E-5</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.2557239241534294E-3</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.75415878110865919</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.77084121889134072</v>
+      </c>
+      <c r="J10">
+        <v>11.853857945835463</v>
+      </c>
+      <c r="K10">
+        <v>12.626439428834638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -822,24 +2305,33 @@
       <c r="D11">
         <v>4</v>
       </c>
+      <c r="E11">
+        <v>0.77749999999999997</v>
+      </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7301105110511053E-5</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1594597137742609E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.76934745896100243</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.78565254103899751</v>
+      </c>
+      <c r="J11">
+        <v>11.878971061093248</v>
+      </c>
+      <c r="K11">
+        <v>12.559352517985612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2</v>
       </c>
@@ -871,8 +2363,14 @@
         <f t="shared" si="3"/>
         <v>0.59685029645387988</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J12">
+        <v>11.634707084468666</v>
+      </c>
+      <c r="K12">
+        <v>11.810031499878846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -885,24 +2383,33 @@
       <c r="D13">
         <v>4</v>
       </c>
+      <c r="E13">
+        <v>0.56259999999999999</v>
+      </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.461058505850585E-5</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.9609056691803611E-3</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5528766248884065</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.57232337511159348</v>
+      </c>
+      <c r="J13">
+        <v>11.608425168858869</v>
+      </c>
+      <c r="K13">
+        <v>11.76812257031786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2</v>
       </c>
@@ -915,24 +2422,33 @@
       <c r="D14">
         <v>3</v>
       </c>
+      <c r="E14">
+        <v>0.79820000000000002</v>
+      </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6109286928692866E-5</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0136376180084903E-3</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.79033327026870337</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.80606672973129667</v>
+      </c>
+      <c r="J14">
+        <v>11.75833124530193</v>
+      </c>
+      <c r="K14">
+        <v>12.503968253968255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -945,24 +2461,33 @@
       <c r="D15">
         <v>4</v>
       </c>
+      <c r="E15">
+        <v>0.79149999999999998</v>
+      </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6504425442544255E-5</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0625639001182802E-3</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.78353737475576812</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.79946262524423184</v>
+      </c>
+      <c r="J15">
+        <v>11.790145293746052</v>
+      </c>
+      <c r="K15">
+        <v>12.544145873320538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2</v>
       </c>
@@ -975,24 +2500,33 @@
       <c r="D16">
         <v>3</v>
       </c>
+      <c r="E16">
+        <v>0.6129</v>
+      </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3727731773177317E-5</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8711119647547952E-3</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.60335262054908056</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.62244737945091944</v>
+      </c>
+      <c r="J16">
+        <v>11.514439549681841</v>
+      </c>
+      <c r="K16">
+        <v>11.763307493540053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1005,25 +2539,279 @@
       <c r="D17">
         <v>4</v>
       </c>
+      <c r="E17">
+        <v>0.59340000000000004</v>
+      </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4130057005700569E-5</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.9122354387488975E-3</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.58377201854005223</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.60302798145994785</v>
+      </c>
+      <c r="J17">
+        <v>11.496629592180653</v>
+      </c>
+      <c r="K17">
+        <v>11.744157441574416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>0.79033327026870337</v>
+      </c>
+      <c r="D21">
+        <v>0.80606672973129667</v>
+      </c>
+      <c r="E21">
+        <v>0.79820000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>0.78353737475576812</v>
+      </c>
+      <c r="D22">
+        <v>0.79946262524423184</v>
+      </c>
+      <c r="E22">
+        <v>0.79149999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>0.76934745896100243</v>
+      </c>
+      <c r="D23">
+        <v>0.78565254103899751</v>
+      </c>
+      <c r="E23">
+        <v>0.77749999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>0.76934745896100243</v>
+      </c>
+      <c r="D24">
+        <v>0.78565254103899751</v>
+      </c>
+      <c r="E24">
+        <v>0.77749999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>0.60335262054908056</v>
+      </c>
+      <c r="D25">
+        <v>0.62244737945091944</v>
+      </c>
+      <c r="E25">
+        <v>0.6129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>0.58377201854005223</v>
+      </c>
+      <c r="D26">
+        <v>0.60302798145994785</v>
+      </c>
+      <c r="E26">
+        <v>0.59340000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>0.58226647442812884</v>
+      </c>
+      <c r="D27">
+        <v>0.60153352557187112</v>
+      </c>
+      <c r="E27">
+        <v>0.59189999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>0.57754970354612023</v>
+      </c>
+      <c r="D28">
+        <v>0.59685029645387988</v>
+      </c>
+      <c r="E28">
+        <v>0.58720000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>0.55939355211710018</v>
+      </c>
+      <c r="D29">
+        <v>0.57880644788289992</v>
+      </c>
+      <c r="E29">
+        <v>0.56910000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>0.55488165222464492</v>
+      </c>
+      <c r="D30">
+        <v>0.57431834777535506</v>
+      </c>
+      <c r="E30">
+        <v>0.56459999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>0.5528766248884065</v>
+      </c>
+      <c r="D31">
+        <v>0.57232337511159348</v>
+      </c>
+      <c r="E31">
+        <v>0.56259999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>0.54776453139623504</v>
+      </c>
+      <c r="D32">
+        <v>0.56723546860376495</v>
+      </c>
+      <c r="E32">
+        <v>0.5575</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>0.35984026748287623</v>
+      </c>
+      <c r="D33">
+        <v>0.3787597325171238</v>
+      </c>
+      <c r="E33">
+        <v>0.36930000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>0.33657658227460507</v>
+      </c>
+      <c r="D34">
+        <v>0.3552234177253949</v>
+      </c>
+      <c r="E34">
+        <v>0.34589999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>0.33508615875665304</v>
+      </c>
+      <c r="D35">
+        <v>0.35371384124334693</v>
+      </c>
+      <c r="E35">
+        <v>0.34439999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>0.31671282199724177</v>
+      </c>
+      <c r="D36">
+        <v>0.33508717800275828</v>
+      </c>
+      <c r="E36">
+        <v>0.32590000000000002</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B20:E36" xr:uid="{B04983BC-3F20-41EC-8F96-A1E0479E65FD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:E36">
+      <sortCondition descending="1" ref="E20:E36"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/takashoIEEE結果CSV/結果.xlsx
+++ b/takashoIEEE結果CSV/結果.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\Programs\Python\Python38\Lib\site-packages\fireplaceAharaLab\takashoIEEE結果CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aharaLab\Documents\fireplaceAharaLab\takashoIEEE結果CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39440EDF-4C5B-4423-A597-2774C5674DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E3CC93-BF1B-4C50-A05B-43943FDED48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2205" windowWidth="25710" windowHeight="10290" xr2:uid="{9EE5AC19-459F-4FD4-B633-AB8EA678AFE7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EE5AC19-459F-4FD4-B633-AB8EA678AFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$20:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$20:$F$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>先マナ</t>
     <rPh sb="0" eb="1">
@@ -226,11 +226,150 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D-E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E-F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D-F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G-H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H-I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G-I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D-G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E-H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-I</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.00000E+00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,8 +409,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -344,7 +486,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$20</c:f>
+              <c:f>Sheet1!$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -365,7 +507,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$21:$B$36</c:f>
+              <c:f>Sheet1!$C$21:$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -421,7 +563,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$C$36</c:f>
+              <c:f>Sheet1!$D$21:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -488,7 +630,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$20</c:f>
+              <c:f>Sheet1!$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -509,7 +651,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$21:$B$36</c:f>
+              <c:f>Sheet1!$C$21:$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -565,7 +707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$36</c:f>
+              <c:f>Sheet1!$E$21:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -632,7 +774,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$20</c:f>
+              <c:f>Sheet1!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -665,7 +807,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$21:$B$36</c:f>
+              <c:f>Sheet1!$C$21:$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -721,7 +863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$36</c:f>
+              <c:f>Sheet1!$F$21:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1559,16 +1701,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>157161</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>221933</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>364637</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>150203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>559901</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>209852</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1893,920 +2035,1387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04983BC-3F20-41EC-8F96-A1E0479E65FD}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="26.3984375" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>0.56459999999999999</v>
-      </c>
       <c r="F2">
-        <f>E2*(1-E2)/9999</f>
-        <v>2.4585142514251423E-5</v>
+        <v>0.57189999999999996</v>
       </c>
       <c r="G2">
-        <f>SQRT(F2)</f>
-        <v>4.9583407017117559E-3</v>
+        <f>F2*(1-F2)/9999</f>
+        <v>2.4485487548754878E-5</v>
       </c>
       <c r="H2">
-        <f>E2-1.96*G2</f>
-        <v>0.55488165222464492</v>
+        <f>SQRT(G2)</f>
+        <v>4.9482812721949104E-3</v>
       </c>
       <c r="I2">
-        <f>E2+1.96*G2</f>
-        <v>0.57431834777535506</v>
+        <f>F2-1.96*H2</f>
+        <v>0.56220136870649795</v>
       </c>
       <c r="J2">
+        <f>F2+1.96*H2</f>
+        <v>0.58159863129350198</v>
+      </c>
+      <c r="K2">
         <v>13.04321644</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>13.10932476</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2">
+        <f>O2/Q2</f>
+        <v>1.9825548406422688</v>
+      </c>
+      <c r="O2">
+        <f>F2-F3</f>
+        <v>1.3899999999999912E-2</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P9" si="0">SUM(F2+F3)/2</f>
+        <v>0.56495000000000006</v>
+      </c>
+      <c r="Q2">
+        <f>SQRT(P2*(1-P2)*(0.0002))</f>
+        <v>7.0111553612796232E-3</v>
+      </c>
+      <c r="R2">
+        <f>(1-_xlfn.NORM.S.DIST(ABS(N2),TRUE))*2</f>
+        <v>4.7417175926665278E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>0.5575</v>
-      </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="0">E3*(1-E3)/9999</f>
-        <v>2.4671842184218422E-5</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G17" si="1">SQRT(F3)</f>
-        <v>4.9670758182474347E-3</v>
+        <f t="shared" ref="G3:G17" si="1">F3*(1-F3)/9999</f>
+        <v>2.4666066606660665E-5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H17" si="2">E3-1.96*G3</f>
-        <v>0.54776453139623504</v>
+        <f t="shared" ref="H3:H17" si="2">SQRT(G3)</f>
+        <v>4.966494398130402E-3</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I17" si="3">E3+1.96*G3</f>
-        <v>0.56723546860376495</v>
+        <f t="shared" ref="I3:I17" si="3">F3-1.96*H3</f>
+        <v>0.5482656709796645</v>
       </c>
       <c r="J3">
+        <f t="shared" ref="J3:J17" si="4">F3+1.96*H3</f>
+        <v>0.5677343290203356</v>
+      </c>
+      <c r="K3">
         <v>13.035810205908684</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>13.063222297756628</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N19" si="5">O3/Q3</f>
+        <v>30.134943689510521</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O9" si="6">F3-F4</f>
+        <v>0.21210000000000007</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>0.45195000000000002</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q19" si="7">SQRT(P3*(1-P3)*(0.0002))</f>
+        <v>7.0383406780291612E-3</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R19" si="8">(1-_xlfn.NORM.S.DIST(ABS(N3),TRUE))*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.34589999999999999</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>2.2627581758175818E-5</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>4.7568457782627156E-3</v>
+        <v>2.2627581758175818E-5</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>0.33657658227460507</v>
+        <v>4.7568457782627156E-3</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
+        <v>0.33657658227460507</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
         <v>0.3552234177253949</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>12.633136090000001</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>12.19873671</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>-32.069755250730744</v>
+      </c>
+      <c r="O4">
+        <f>F4-F2</f>
+        <v>-0.22599999999999998</v>
+      </c>
+      <c r="P4">
+        <f>SUM(F4+F2)/2</f>
+        <v>0.45889999999999997</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="7"/>
+        <v>7.0471382844385852E-3</v>
+      </c>
+      <c r="R4" s="1">
+        <f>(1-_xlfn.NORM.S.DIST(ABS(N4),TRUE))*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.32590000000000002</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>2.1971116111611161E-5</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>4.6873357156929953E-3</v>
+        <v>2.1971116111611161E-5</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>0.31671282199724177</v>
+        <v>4.6873357156929953E-3</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
+        <v>0.31671282199724177</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
         <v>0.33508717800275828</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>12.616564417177914</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>12.129765286290926</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>-37.745818126966277</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>-0.26599999999999996</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.45889999999999997</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="7"/>
+        <v>7.0471382844385852E-3</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.59189999999999998</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>2.415785478547855E-5</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>4.9150640672811731E-3</v>
+        <v>2.415785478547855E-5</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0.58226647442812884</v>
+        <v>4.9150640672811731E-3</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
+        <v>0.58226647442812884</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
         <v>0.60153352557187112</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12.966711726934776</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>13.157170923379175</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>3.2670272322801219</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>2.2799999999999931E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.58050000000000002</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>6.9788215337548221E-3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="8"/>
+        <v>1.0868322522874507E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.56910000000000005</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>2.4524971497149712E-5</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>4.9522693280101109E-3</v>
+        <v>2.4524971497149712E-5</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.55939355211710018</v>
+        <v>4.9522693280101109E-3</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
+        <v>0.55939355211710018</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
         <v>0.57880644788289992</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>13.000707463742483</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>13.06789413118527</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>34.584851222365501</v>
+      </c>
+      <c r="O7">
+        <f>F7-F5</f>
+        <v>0.24320000000000003</v>
+      </c>
+      <c r="P7">
+        <f>SUM(F7+F5)/2</f>
+        <v>0.44750000000000001</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>7.0319805176066869E-3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.36930000000000002</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>2.3294080408040805E-5</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>4.8263941413896989E-3</v>
+        <v>2.3294080408040805E-5</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.35984026748287623</v>
+        <v>4.8263941413896989E-3</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
+        <v>0.35984026748287623</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
         <v>0.3787597325171238</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>12.552447552447552</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>12.176723451679669</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>3.6752370985938962</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>2.4900000000000033E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.35685</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>6.7750730992366419E-3</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>2.3762862910925442E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.34439999999999998</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>2.2581122112211218E-5</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>4.751959818034157E-3</v>
+        <v>2.2581122112211218E-5</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0.33508615875665304</v>
+        <v>4.751959818034157E-3</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
+        <v>0.33508615875665304</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
         <v>0.35371384124334693</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>12.533681765389083</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>12.174065598779558</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>-59.469039886685827</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>-0.41809999999999997</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.55345</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>7.0305490183910956E-3</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.76249999999999996</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1.8111186118611865E-5</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>4.2557239241534294E-3</v>
+        <v>1.8111186118611865E-5</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0.75415878110865919</v>
+        <v>4.2557239241534294E-3</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
+        <v>0.75415878110865919</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
         <v>0.77084121889134072</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>11.853857945835463</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>12.626439428834638</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11">
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>56.096242448293815</v>
+      </c>
+      <c r="O10">
+        <f>F10-F8</f>
+        <v>0.39319999999999994</v>
+      </c>
+      <c r="P10">
+        <f>SUM(F10+F8)/2</f>
+        <v>0.56589999999999996</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="7"/>
+        <v>7.0093821411020239E-3</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.77749999999999997</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>1.7301105110511053E-5</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>4.1594597137742609E-3</v>
+        <v>1.7301105110511053E-5</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.76934745896100243</v>
+        <v>4.1594597137742609E-3</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
+        <v>0.76934745896100243</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
         <v>0.78565254103899751</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>11.878971061093248</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>12.559352517985612</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12">
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>34.972775582059924</v>
+      </c>
+      <c r="O11">
+        <f>F2-F5</f>
+        <v>0.24599999999999994</v>
+      </c>
+      <c r="P11">
+        <f>SUM(F2+F5)/2</f>
+        <v>0.44889999999999997</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="7"/>
+        <v>7.0340427920222376E-3</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.58720000000000006</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>2.4242040204020403E-5</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>4.9236206397345848E-3</v>
+        <v>2.4242040204020403E-5</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.57754970354612023</v>
+        <v>4.9236206397345848E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
+        <v>0.57754970354612023</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
         <v>0.59685029645387988</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>11.634707084468666</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>11.810031499878846</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13">
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>28.904116785412832</v>
+      </c>
+      <c r="O12">
+        <f>F2-F8</f>
+        <v>0.20259999999999995</v>
+      </c>
+      <c r="P12">
+        <f>SUM(F10+F8)/2</f>
+        <v>0.56589999999999996</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>7.0093821411020239E-3</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.56259999999999999</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>2.461058505850585E-5</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>4.9609056691803611E-3</v>
+        <v>2.461058505850585E-5</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.5528766248884065</v>
+        <v>4.9609056691803611E-3</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
+        <v>0.5528766248884065</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
         <v>0.57232337511159348</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>11.608425168858869</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>11.76812257031786</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14">
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>6.4443314842170496</v>
+      </c>
+      <c r="O13">
+        <f>F8-F5</f>
+        <v>4.3399999999999994E-2</v>
+      </c>
+      <c r="P13">
+        <f>SUM(F8+F5)/2</f>
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="7"/>
+        <v>6.7346008047990498E-3</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="8"/>
+        <v>1.1611112071818752E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.79820000000000002</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>1.6109286928692866E-5</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>4.0136376180084903E-3</v>
+        <v>1.6109286928692866E-5</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0.79033327026870337</v>
+        <v>4.0136376180084903E-3</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
+        <v>0.79033327026870337</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
         <v>0.80606672973129667</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>11.75833124530193</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>12.503968253968255</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15">
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>-4.8489717167978768</v>
+      </c>
+      <c r="O14">
+        <f>F3-F6</f>
+        <v>-3.389999999999993E-2</v>
+      </c>
+      <c r="P14">
+        <f>SUM(F3+F6)/2</f>
+        <v>0.57495000000000007</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="7"/>
+        <v>6.9911729702532748E-3</v>
+      </c>
+      <c r="R14">
+        <f>(1-_xlfn.NORM.S.DIST(ABS(N14),TRUE))*2</f>
+        <v>1.2410311251986883E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.79149999999999998</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1.6504425442544255E-5</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>4.0625639001182802E-3</v>
+        <v>1.6504425442544255E-5</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0.78353737475576812</v>
+        <v>4.0625639001182802E-3</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
+        <v>0.78353737475576812</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
         <v>0.79946262524423184</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>11.790145293746052</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>12.544145873320538</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16">
+      <c r="M15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>30.352512992706167</v>
+      </c>
+      <c r="O15">
+        <f>F3-F9</f>
+        <v>0.21360000000000007</v>
+      </c>
+      <c r="P15">
+        <f>SUM(F3+F9)/2</f>
+        <v>0.45120000000000005</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>7.0373085764374446E-3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.6129</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>2.3727731773177317E-5</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>4.8711119647547952E-3</v>
+        <v>2.3727731773177317E-5</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0.60335262054908056</v>
+        <v>4.8711119647547952E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
+        <v>0.60335262054908056</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
         <v>0.62244737945091944</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>11.514439549681841</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>11.763307493540053</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="M16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>35.073015712103775</v>
+      </c>
+      <c r="O16">
+        <f>F6-F9</f>
+        <v>0.2475</v>
+      </c>
+      <c r="P16">
+        <f>SUM(F6+F9)/2</f>
+        <v>0.46814999999999996</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="7"/>
+        <v>7.0567071286826129E-3</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.59340000000000004</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>2.4130057005700569E-5</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>4.9122354387488975E-3</v>
+        <v>2.4130057005700569E-5</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.58377201854005223</v>
+        <v>4.9122354387488975E-3</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
+        <v>0.58377201854005223</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
         <v>0.60302798145994785</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>11.496629592180653</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>11.744157441574416</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>-31.679897806946101</v>
+      </c>
+      <c r="O17">
+        <f>F4-F7</f>
+        <v>-0.22320000000000007</v>
+      </c>
+      <c r="P17">
+        <f>SUM(F4+F7)/2</f>
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>7.0454772726906163E-3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="M18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>-59.265366573720669</v>
+      </c>
+      <c r="O18">
+        <f>F4-F10</f>
+        <v>-0.41659999999999997</v>
+      </c>
+      <c r="P18">
+        <f>SUM(F4+F10)/2</f>
+        <v>0.55420000000000003</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>7.0294005434318515E-3</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="M19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>-28.991210796769479</v>
+      </c>
+      <c r="O19">
+        <f>F7-F10</f>
+        <v>-0.19339999999999991</v>
+      </c>
+      <c r="P19">
+        <f>SUM(F7+F10)/2</f>
+        <v>0.66579999999999995</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>6.670987333221373E-3</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.79033327026870337</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.80606672973129667</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.79820000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.78353737475576812</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.79946262524423184</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.79149999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.76934745896100243</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.78565254103899751</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.77749999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.76934745896100243</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.78565254103899751</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.77749999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.60335262054908056</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.62244737945091944</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.6129</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.58377201854005223</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.60302798145994785</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.59340000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.58226647442812884</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.60153352557187112</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.59189999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.57754970354612023</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.59685029645387988</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.58720000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.55939355211710018</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.57880644788289992</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.56910000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.55488165222464492</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.57431834777535506</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.56459999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.5528766248884065</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.57232337511159348</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.56259999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
         <v>12</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.54776453139623504</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.56723546860376495</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.5575</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
         <v>16</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.35984026748287623</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.3787597325171238</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.36930000000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.33657658227460507</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.3552234177253949</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.34589999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
         <v>17</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.33508615875665304</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.35371384124334693</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.34439999999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.31671282199724177</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.33508717800275828</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.32590000000000002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B20:E36" xr:uid="{B04983BC-3F20-41EC-8F96-A1E0479E65FD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:E36">
-      <sortCondition descending="1" ref="E20:E36"/>
+  <autoFilter ref="C20:F36" xr:uid="{B04983BC-3F20-41EC-8F96-A1E0479E65FD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C21:F36">
+      <sortCondition descending="1" ref="F20:F36"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>

--- a/takashoIEEE結果CSV/結果.xlsx
+++ b/takashoIEEE結果CSV/結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aharaLab\Documents\fireplaceAharaLab\takashoIEEE結果CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E3CC93-BF1B-4C50-A05B-43943FDED48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE03ECE0-E1C2-468D-84B4-7973CE0D129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EE5AC19-459F-4FD4-B633-AB8EA678AFE7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>先マナ</t>
     <rPh sb="0" eb="1">
@@ -362,13 +362,104 @@
     <t>F-I</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ABCD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p値</t>
+    <rPh sb="1" eb="2">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MNOP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EFGH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="176" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -413,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,10 +608,10 @@
                   <c:v>2-4-1-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2-3-1-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2-3-1-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2-3-1-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2-4-2-3</c:v>
@@ -621,7 +712,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C051-45D1-BAE7-AD68827CCFD7}"/>
+              <c16:uniqueId val="{00000000-A9EE-44D0-9229-ABFDD19EB8EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -661,10 +752,10 @@
                   <c:v>2-4-1-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2-3-1-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2-3-1-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2-3-1-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2-4-2-3</c:v>
@@ -765,7 +856,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C051-45D1-BAE7-AD68827CCFD7}"/>
+              <c16:uniqueId val="{00000001-A9EE-44D0-9229-ABFDD19EB8EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -817,10 +908,10 @@
                   <c:v>2-4-1-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2-3-1-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2-3-1-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2-3-1-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2-4-2-3</c:v>
@@ -874,7 +965,7 @@
                   <c:v>0.79149999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77749999999999997</c:v>
+                  <c:v>0.78120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.77749999999999997</c:v>
@@ -921,7 +1012,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C051-45D1-BAE7-AD68827CCFD7}"/>
+              <c16:uniqueId val="{00000002-A9EE-44D0-9229-ABFDD19EB8EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -947,11 +1038,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="1106664960"/>
-        <c:axId val="1106684096"/>
+        <c:axId val="1190471487"/>
+        <c:axId val="1190473567"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="1106664960"/>
+        <c:axId val="1190471487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +1085,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1106684096"/>
+        <c:crossAx val="1190473567"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1002,7 +1093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1106684096"/>
+        <c:axId val="1190473567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -1054,7 +1145,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1106664960"/>
+        <c:crossAx val="1190471487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1701,23 +1792,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>364637</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>150203</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>459105</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>559901</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>209852</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>263302</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>117698</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0527F7A-C739-457E-8384-85F306F483DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA13F9B-F750-4FA2-B588-DA136751BB2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04983BC-3F20-41EC-8F96-A1E0479E65FD}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2585,19 +2676,19 @@
       </c>
       <c r="N9">
         <f t="shared" si="5"/>
-        <v>-59.469039886685827</v>
+        <v>-62.265934554502344</v>
       </c>
       <c r="O9">
         <f t="shared" si="6"/>
-        <v>-0.41809999999999997</v>
+        <v>-0.43680000000000002</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0.55345</v>
+        <v>0.56279999999999997</v>
       </c>
       <c r="Q9">
         <f t="shared" si="7"/>
-        <v>7.0305490183910956E-3</v>
+        <v>7.015071774401172E-3</v>
       </c>
       <c r="R9">
         <f t="shared" si="8"/>
@@ -2621,23 +2712,23 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>0.76249999999999996</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>1.8111186118611865E-5</v>
+        <v>1.7094365436543655E-5</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>4.2557239241534294E-3</v>
+        <v>4.1345332791675113E-3</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>0.75415878110865919</v>
+        <v>0.77309631477283169</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>0.77084121889134072</v>
+        <v>0.78930368522716832</v>
       </c>
       <c r="K10">
         <v>11.853857945835463</v>
@@ -2650,19 +2741,19 @@
       </c>
       <c r="N10">
         <f t="shared" si="5"/>
-        <v>56.096242448293815</v>
+        <v>58.92258433630537</v>
       </c>
       <c r="O10">
         <f>F10-F8</f>
-        <v>0.39319999999999994</v>
+        <v>0.41189999999999999</v>
       </c>
       <c r="P10">
         <f>SUM(F10+F8)/2</f>
-        <v>0.56589999999999996</v>
+        <v>0.57525000000000004</v>
       </c>
       <c r="Q10">
         <f t="shared" si="7"/>
-        <v>7.0093821411020239E-3</v>
+        <v>6.9905284135035172E-3</v>
       </c>
       <c r="R10">
         <f t="shared" si="8"/>
@@ -2780,7 +2871,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="5"/>
-        <v>28.904116785412832</v>
+        <v>28.982072314968356</v>
       </c>
       <c r="O12">
         <f>F2-F8</f>
@@ -2788,11 +2879,11 @@
       </c>
       <c r="P12">
         <f>SUM(F10+F8)/2</f>
-        <v>0.56589999999999996</v>
+        <v>0.57525000000000004</v>
       </c>
       <c r="Q12">
         <f t="shared" si="7"/>
-        <v>7.0093821411020239E-3</v>
+        <v>6.9905284135035172E-3</v>
       </c>
       <c r="R12">
         <f t="shared" si="8"/>
@@ -3130,19 +3221,19 @@
       </c>
       <c r="N18">
         <f t="shared" si="5"/>
-        <v>-59.265366573720669</v>
+        <v>-62.064061606869387</v>
       </c>
       <c r="O18">
         <f>F4-F10</f>
-        <v>-0.41659999999999997</v>
+        <v>-0.43530000000000002</v>
       </c>
       <c r="P18">
         <f>SUM(F4+F10)/2</f>
-        <v>0.55420000000000003</v>
+        <v>0.56355</v>
       </c>
       <c r="Q18">
         <f t="shared" si="7"/>
-        <v>7.0294005434318515E-3</v>
+        <v>7.0137208028264149E-3</v>
       </c>
       <c r="R18">
         <f t="shared" si="8"/>
@@ -3155,19 +3246,19 @@
       </c>
       <c r="N19">
         <f t="shared" si="5"/>
-        <v>-28.991210796769479</v>
+        <v>-32.02462840420479</v>
       </c>
       <c r="O19">
         <f>F7-F10</f>
-        <v>-0.19339999999999991</v>
+        <v>-0.21209999999999996</v>
       </c>
       <c r="P19">
         <f>SUM(F7+F10)/2</f>
-        <v>0.66579999999999995</v>
+        <v>0.67515000000000003</v>
       </c>
       <c r="Q19">
         <f t="shared" si="7"/>
-        <v>6.670987333221373E-3</v>
+        <v>6.6230276686723875E-3</v>
       </c>
       <c r="R19">
         <f t="shared" si="8"/>
@@ -3187,8 +3278,14 @@
       <c r="F20" t="s">
         <v>10</v>
       </c>
+      <c r="N20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -3201,8 +3298,37 @@
       <c r="F21">
         <v>0.79820000000000002</v>
       </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21">
+        <f>K21/M21</f>
+        <v>1.17322539505273</v>
+      </c>
+      <c r="K21">
+        <f>F21-F22</f>
+        <v>6.7000000000000393E-3</v>
+      </c>
+      <c r="L21">
+        <f>SUM(F21+F22)/2</f>
+        <v>0.79485000000000006</v>
+      </c>
+      <c r="M21">
+        <f>SQRT(L21*(1-L21)*(0.0002))</f>
+        <v>5.7107526211524866E-3</v>
+      </c>
+      <c r="N21">
+        <f>(1-_xlfn.NORM.S.DIST(ABS(J21),TRUE))*2</f>
+        <v>0.24070543079122908</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -3215,10 +3341,36 @@
       <c r="F22">
         <v>0.79149999999999998</v>
       </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22">
+        <f>K22/M22</f>
+        <v>2.9497364729505073</v>
+      </c>
+      <c r="K22">
+        <f>F21-F23</f>
+        <v>1.7000000000000015E-2</v>
+      </c>
+      <c r="L22">
+        <f>SUM(F21+F23)/2</f>
+        <v>0.78970000000000007</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M32" si="9">SQRT(L22*(1-L22)*(0.0002))</f>
+        <v>5.7632267003823474E-3</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N26" si="10">(1-_xlfn.NORM.S.DIST(ABS(J22),TRUE))*2</f>
+        <v>3.1804507985078168E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>0.76934745896100243</v>
@@ -3227,12 +3379,38 @@
         <v>0.78565254103899751</v>
       </c>
       <c r="F23">
-        <v>0.77749999999999997</v>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J22:J26" si="11">K23/M23</f>
+        <v>3.5802393365082539</v>
+      </c>
+      <c r="K23">
+        <f>F21-F24</f>
+        <v>2.0700000000000052E-2</v>
+      </c>
+      <c r="L23">
+        <f>SUM(F21+F24)/2</f>
+        <v>0.78784999999999994</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="9"/>
+        <v>5.7817363741353694E-3</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="10"/>
+        <v>3.4327963766367375E-4</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <v>0.76934745896100243</v>
@@ -3243,8 +3421,34 @@
       <c r="F24">
         <v>0.77749999999999997</v>
       </c>
+      <c r="I24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="11"/>
+        <v>1.7768993673551778</v>
+      </c>
+      <c r="K24">
+        <f>F22-F23</f>
+        <v>1.0299999999999976E-2</v>
+      </c>
+      <c r="L24">
+        <f>SUM(F22+F23)/2</f>
+        <v>0.78634999999999999</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="9"/>
+        <v>5.796614141030952E-3</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="10"/>
+        <v>7.5584798508219642E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
@@ -3257,8 +3461,34 @@
       <c r="F25">
         <v>0.6129</v>
       </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="11"/>
+        <v>2.4076476318841369</v>
+      </c>
+      <c r="K25">
+        <f>F22-F24</f>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="L25">
+        <f>SUM(F22+F24)/2</f>
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="9"/>
+        <v>5.8148043819203415E-3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="10"/>
+        <v>1.6055669204829925E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -3271,8 +3501,34 @@
       <c r="F26">
         <v>0.59340000000000004</v>
       </c>
+      <c r="I26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="11"/>
+        <v>0.6309115680603028</v>
+      </c>
+      <c r="K26">
+        <f>F23-F24</f>
+        <v>3.7000000000000366E-3</v>
+      </c>
+      <c r="L26">
+        <f>SUM(F23+F24)/2</f>
+        <v>0.77934999999999999</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="9"/>
+        <v>5.8645302880963963E-3</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="10"/>
+        <v>0.52809834758942609</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -3285,8 +3541,37 @@
       <c r="F27">
         <v>0.59189999999999998</v>
       </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:J32" si="12">K27/M27</f>
+        <v>-2.8183424050591435</v>
+      </c>
+      <c r="K27">
+        <f>F26-F25</f>
+        <v>-1.9499999999999962E-2</v>
+      </c>
+      <c r="L27">
+        <f>SUM(F26+F25)/2</f>
+        <v>0.60315000000000007</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="9"/>
+        <v>6.9189605794512223E-3</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N32" si="13">(1-_xlfn.NORM.S.DIST(ABS(J27),TRUE))*2</f>
+        <v>4.8272301501830484E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -3299,8 +3584,34 @@
       <c r="F28">
         <v>0.58720000000000006</v>
       </c>
+      <c r="I28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="12"/>
+        <v>3.0341610395007699</v>
+      </c>
+      <c r="K28">
+        <f>F25-F27</f>
+        <v>2.1000000000000019E-2</v>
+      </c>
+      <c r="L28">
+        <f>SUM(F25+F27)/2</f>
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="9"/>
+        <v>6.9211883372727262E-3</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="13"/>
+        <v>2.4120563701921505E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -3313,8 +3624,34 @@
       <c r="F29">
         <v>0.56910000000000005</v>
       </c>
+      <c r="I29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="12"/>
+        <v>3.7095527820189944</v>
+      </c>
+      <c r="K29">
+        <f>F25-F28</f>
+        <v>2.5699999999999945E-2</v>
+      </c>
+      <c r="L29">
+        <f>SUM(F25+F28)/2</f>
+        <v>0.60004999999999997</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="9"/>
+        <v>6.9280588551195203E-3</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="13"/>
+        <v>2.0762567083254524E-4</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -3327,8 +3664,34 @@
       <c r="F30">
         <v>0.56459999999999999</v>
       </c>
+      <c r="I30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="12"/>
+        <v>0.21587047966595943</v>
+      </c>
+      <c r="K30">
+        <f>F26-F27</f>
+        <v>1.5000000000000568E-3</v>
+      </c>
+      <c r="L30">
+        <f>SUM(F27+F26)/2</f>
+        <v>0.59265000000000001</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="9"/>
+        <v>6.9486110482599329E-3</v>
+      </c>
+      <c r="N30">
+        <f>(1-_xlfn.NORM.S.DIST(ABS(J30),TRUE))*2</f>
+        <v>0.82908870838493165</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -3341,8 +3704,34 @@
       <c r="F31">
         <v>0.56259999999999999</v>
       </c>
+      <c r="I31" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="12"/>
+        <v>2.5915780046474985</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K27:K32" si="14">F28-F29</f>
+        <v>1.8100000000000005E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L27:L32" si="15">SUM(F28+F29)/2</f>
+        <v>0.57815000000000005</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="9"/>
+        <v>6.9841617607269094E-3</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="13"/>
+        <v>9.5536880339763819E-3</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -3355,8 +3744,34 @@
       <c r="F32">
         <v>0.5575</v>
       </c>
+      <c r="I32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="12"/>
+        <v>0.89147120148336179</v>
+      </c>
+      <c r="K32">
+        <f>F26-F28</f>
+        <v>6.1999999999999833E-3</v>
+      </c>
+      <c r="L32">
+        <f>SUM(F26+F28)/2</f>
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="9"/>
+        <v>6.9547956116625025E-3</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="13"/>
+        <v>0.37267643461023159</v>
+      </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -3369,8 +3784,37 @@
       <c r="F33">
         <v>0.36930000000000002</v>
       </c>
+      <c r="H33" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33">
+        <f>K33/M33</f>
+        <v>3.4522269484457007</v>
+      </c>
+      <c r="K33">
+        <f>F33-F34</f>
+        <v>2.3400000000000032E-2</v>
+      </c>
+      <c r="L33">
+        <f>SUM(F33+F34)/2</f>
+        <v>0.35760000000000003</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33:M38" si="16">SQRT(L33*(1-L33)*(0.0002))</f>
+        <v>6.7782333981650416E-3</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33" si="17">(1-_xlfn.NORM.S.DIST(ABS(J33),TRUE))*2</f>
+        <v>5.5597987874977939E-4</v>
+      </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
@@ -3383,8 +3827,34 @@
       <c r="F34">
         <v>0.34589999999999999</v>
       </c>
+      <c r="I34" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:J38" si="18">K34/M34</f>
+        <v>3.6752370985938962</v>
+      </c>
+      <c r="K34">
+        <f>F33-F35</f>
+        <v>2.4900000000000033E-2</v>
+      </c>
+      <c r="L34">
+        <f>SUM(F33+F35)/2</f>
+        <v>0.35685</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="16"/>
+        <v>6.7750730992366419E-3</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:N38" si="19">(1-_xlfn.NORM.S.DIST(ABS(J34),TRUE))*2</f>
+        <v>2.3762862910925442E-4</v>
+      </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
@@ -3397,8 +3867,34 @@
       <c r="F35">
         <v>0.34439999999999998</v>
       </c>
+      <c r="I35" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35">
+        <f>K35/M35</f>
+        <v>6.4443314842170496</v>
+      </c>
+      <c r="K35">
+        <f>F33-F36</f>
+        <v>4.3399999999999994E-2</v>
+      </c>
+      <c r="L35">
+        <f>SUM(F33+F36)/2</f>
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="16"/>
+        <v>6.7346008047990498E-3</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="19"/>
+        <v>1.1611112071818752E-10</v>
+      </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -3410,6 +3906,79 @@
       </c>
       <c r="F36">
         <v>0.32590000000000002</v>
+      </c>
+      <c r="I36" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="18"/>
+        <v>0.22310094324592308</v>
+      </c>
+      <c r="K36">
+        <f>F34-F35</f>
+        <v>1.5000000000000013E-3</v>
+      </c>
+      <c r="L36">
+        <f>SUM(F34+F35)/2</f>
+        <v>0.34514999999999996</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="16"/>
+        <v>6.7234139765449518E-3</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="19"/>
+        <v>0.82345694425144789</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="I37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37">
+        <f>K37/M37</f>
+        <v>2.9942858349018997</v>
+      </c>
+      <c r="K37">
+        <f>F34-F36</f>
+        <v>1.9999999999999962E-2</v>
+      </c>
+      <c r="L37">
+        <f>SUM(F34+F36)/2</f>
+        <v>0.33589999999999998</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="16"/>
+        <v>6.6793890439171156E-3</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="19"/>
+        <v>2.7508810243346282E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="I38" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="18"/>
+        <v>2.771247294681217</v>
+      </c>
+      <c r="K38">
+        <f>F35-F36</f>
+        <v>1.8499999999999961E-2</v>
+      </c>
+      <c r="L38">
+        <f>SUM(F35+F36)/2</f>
+        <v>0.33515</v>
+      </c>
+      <c r="M38">
+        <f>SQRT(L38*(1-L38)*(0.0002))</f>
+        <v>6.6756943833581831E-3</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="19"/>
+        <v>5.5841998697847561E-3</v>
       </c>
     </row>
   </sheetData>

--- a/takashoIEEE結果CSV/結果.xlsx
+++ b/takashoIEEE結果CSV/結果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aharaLab\Documents\fireplaceAharaLab\takashoIEEE結果CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\Programs\Python\Python38\Lib\site-packages\fireplaceAharaLab\takashoIEEE結果CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE03ECE0-E1C2-468D-84B4-7973CE0D129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED45C924-43D1-473A-9607-7C5243614518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EE5AC19-459F-4FD4-B633-AB8EA678AFE7}"/>
   </bookViews>
@@ -668,7 +668,7 @@
                   <c:v>0.76934745896100243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76934745896100243</c:v>
+                  <c:v>0.77749999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.60335262054908056</c:v>
@@ -2128,19 +2128,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04983BC-3F20-41EC-8F96-A1E0479E65FD}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="26.3984375" customWidth="1"/>
+    <col min="12" max="12" width="26.375" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>4.7417175926665278E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>1.0868322522874507E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>2.3762862910925442E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>1.1611112071818752E-10</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>1.2410311251986883E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="M18" t="s">
         <v>61</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="M19" t="s">
         <v>62</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>9</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0.24070543079122908</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>3.1804507985078168E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>66</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J22:J26" si="11">K23/M23</f>
+        <f t="shared" ref="J23:J26" si="11">K23/M23</f>
         <v>3.5802393365082539</v>
       </c>
       <c r="K23">
@@ -3405,7 +3405,7 @@
         <v>3.4327963766367375E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>19</v>
       </c>
       <c r="D24">
-        <v>0.76934745896100243</v>
+        <v>0.77749999999999997</v>
       </c>
       <c r="E24">
         <v>0.78565254103899751</v>
@@ -3445,7 +3445,7 @@
         <v>7.5584798508219642E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>1.6055669204829925E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>0.52809834758942609</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>4.8272301501830484E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>2.4120563701921505E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>2.0762567083254524E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>38</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0.82908870838493165</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -3712,11 +3712,11 @@
         <v>2.5915780046474985</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K27:K32" si="14">F28-F29</f>
+        <f t="shared" ref="K31" si="14">F28-F29</f>
         <v>1.8100000000000005E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L27:L32" si="15">SUM(F28+F29)/2</f>
+        <f t="shared" ref="L31" si="15">SUM(F28+F29)/2</f>
         <v>0.57815000000000005</v>
       </c>
       <c r="M31">
@@ -3728,7 +3728,7 @@
         <v>9.5536880339763819E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>40</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0.37267643461023159</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>41</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0.35760000000000003</v>
       </c>
       <c r="M33">
-        <f t="shared" ref="M33:M38" si="16">SQRT(L33*(1-L33)*(0.0002))</f>
+        <f t="shared" ref="M33:M37" si="16">SQRT(L33*(1-L33)*(0.0002))</f>
         <v>6.7782333981650416E-3</v>
       </c>
       <c r="N33">
@@ -3811,7 +3811,7 @@
         <v>5.5597987874977939E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>42</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>2.3762862910925442E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>43</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1.1611112071818752E-10</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0.82345694425144789</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I37" t="s">
         <v>76</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>2.7508810243346282E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I38" t="s">
         <v>77</v>
       </c>
